--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_WORKSHOP_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_WORKSHOP_117.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20EDEA-E4BE-4027-86E9-843CFC1E7EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87D2703-7E8D-4DB6-B5A4-C7551EA6035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2940" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -342,34 +342,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,12 +349,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -686,272 +686,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="9"/>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="1"/>
@@ -964,17 +976,17 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -991,46 +1003,46 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1047,17 +1059,17 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1074,33 +1086,33 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K14" s="1"/>
@@ -1113,33 +1125,33 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="1"/>
@@ -1152,33 +1164,33 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="1"/>
@@ -1191,33 +1203,33 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="13" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K17" s="1"/>
@@ -1230,33 +1242,33 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="13" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K18" s="1"/>
@@ -1269,33 +1281,33 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K19" s="1"/>
@@ -1308,33 +1320,33 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="1"/>
@@ -1347,33 +1359,33 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K21" s="1"/>
@@ -1386,33 +1398,33 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K22" s="1"/>
@@ -1425,33 +1437,33 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K23" s="1"/>
@@ -1464,33 +1476,33 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K24" s="1"/>
@@ -1503,17 +1515,17 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1530,33 +1542,33 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K26" s="1"/>
@@ -1569,33 +1581,33 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A27" s="1">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K27" s="1"/>
@@ -1608,33 +1620,33 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A28" s="1">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="1"/>
@@ -1650,6 +1662,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="30">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C23:D23"/>
@@ -1666,20 +1692,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_WORKSHOP_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_WORKSHOP_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87D2703-7E8D-4DB6-B5A4-C7551EA6035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA5D7F-0222-4186-80C7-AD78EFDBC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,16 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,6 +361,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,6 +374,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,131 +700,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5">
         <v>2</v>
       </c>
@@ -852,18 +852,22 @@
       <c r="M6" s="5">
         <v>3</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="5">
         <v>1</v>
       </c>
@@ -891,8 +895,12 @@
       <c r="M7" s="5">
         <v>3</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -905,10 +913,10 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
@@ -944,10 +952,10 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
@@ -983,10 +991,10 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1010,27 +1018,27 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
@@ -1039,10 +1047,10 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1066,10 +1074,10 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1093,10 +1101,10 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1132,10 +1140,10 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1171,10 +1179,10 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1210,10 +1218,10 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1249,10 +1257,10 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="3" t="s">
         <v>49</v>
       </c>
@@ -1288,10 +1296,10 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1327,10 +1335,10 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1366,10 +1374,10 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1405,10 +1413,10 @@
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1444,10 +1452,10 @@
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1483,10 +1491,10 @@
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1522,10 +1530,10 @@
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1549,10 +1557,10 @@
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1588,10 +1596,10 @@
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3" t="s">
         <v>49</v>
       </c>
@@ -1627,10 +1635,10 @@
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
@@ -1662,20 +1670,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="30">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C23:D23"/>
@@ -1692,6 +1686,20 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
